--- a/data_year/zb/批发和零售业/限额以上批发业企业资产及负债/按国民经济行业分限额以上批发业企业资产总计.xlsx
+++ b/data_year/zb/批发和零售业/限额以上批发业企业资产及负债/按国民经济行业分限额以上批发业企业资产总计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1342 +538,805 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>802.7051</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>2104.4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3981.2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1429.3</v>
+      </c>
       <c r="E2" t="n">
-        <v>628.0676</v>
+        <v>3734.7</v>
       </c>
       <c r="F2" t="n">
-        <v>127.3785</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+        <v>2674.1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1544.4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2425.6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1891.9</v>
+      </c>
       <c r="J2" t="n">
-        <v>1014.8</v>
+        <v>15240.7</v>
       </c>
       <c r="K2" t="n">
-        <v>525.5347</v>
+        <v>3756.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1717.5222</v>
+        <v>4019.7</v>
       </c>
       <c r="M2" t="n">
-        <v>335.3395</v>
+        <v>5711.2</v>
       </c>
       <c r="N2" t="n">
-        <v>1382.8607</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
+        <v>8762.200000000001</v>
+      </c>
+      <c r="O2" t="n">
+        <v>39997.2</v>
+      </c>
       <c r="P2" t="n">
-        <v>1425.4706</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+        <v>1753.2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5273.4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1046.1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3434.5</v>
+      </c>
       <c r="T2" t="n">
-        <v>1206.4038</v>
+        <v>17015.2</v>
       </c>
       <c r="U2" t="n">
-        <v>4052.0119</v>
+        <v>8688.200000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2879.5587</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4198.3709</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1965.6802</v>
+      </c>
       <c r="E3" t="n">
-        <v>741.3287</v>
+        <v>4897.8207</v>
       </c>
       <c r="F3" t="n">
-        <v>124.1309</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>3562.2715</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1963.4782</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3027.1268</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2784.6042</v>
+      </c>
+      <c r="J3" t="n">
+        <v>19297.388</v>
+      </c>
       <c r="K3" t="n">
-        <v>787.2474</v>
+        <v>4960.0897</v>
       </c>
       <c r="L3" t="n">
-        <v>1415.2373</v>
+        <v>4743.1418</v>
       </c>
       <c r="M3" t="n">
-        <v>303.4821</v>
+        <v>8059.2937</v>
       </c>
       <c r="N3" t="n">
-        <v>1674.8297</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>10937.0242</v>
+      </c>
+      <c r="O3" t="n">
+        <v>52811.3862</v>
+      </c>
       <c r="P3" t="n">
-        <v>1410.0302</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+        <v>1955.5624</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>7141.7505</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1792.6679</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3599.7924</v>
+      </c>
+      <c r="T3" t="n">
+        <v>22528.3479</v>
+      </c>
       <c r="U3" t="n">
-        <v>3698.2899</v>
+        <v>10655.2983</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3268.12844</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4710.28748</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2656.15375</v>
+      </c>
       <c r="E4" t="n">
-        <v>842.6</v>
+        <v>5784.78812</v>
       </c>
       <c r="F4" t="n">
-        <v>165.9</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>4381.50762</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3262.98801</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3361.27381</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3053.13068</v>
+      </c>
+      <c r="J4" t="n">
+        <v>18824.24215</v>
+      </c>
       <c r="K4" t="n">
-        <v>529.3</v>
+        <v>5008.69511</v>
       </c>
       <c r="L4" t="n">
-        <v>1503.3</v>
+        <v>5235.75975</v>
       </c>
       <c r="M4" t="n">
-        <v>313.4</v>
+        <v>11152.11671</v>
       </c>
       <c r="N4" t="n">
-        <v>1900.7</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>12554.1882</v>
+      </c>
+      <c r="O4" t="n">
+        <v>63907.2923</v>
+      </c>
       <c r="P4" t="n">
-        <v>1489.1</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+        <v>2686.11357</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>11439.23284</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1415.06175</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3503.52084</v>
+      </c>
+      <c r="T4" t="n">
+        <v>25955.51658</v>
+      </c>
       <c r="U4" t="n">
-        <v>3801.627</v>
+        <v>12803.61502</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>476.132</v>
+        <v>3973.4604</v>
       </c>
       <c r="C5" t="n">
-        <v>1878.51605</v>
+        <v>5816.14899</v>
       </c>
       <c r="D5" t="n">
-        <v>416.84498</v>
+        <v>2788.31906</v>
       </c>
       <c r="E5" t="n">
-        <v>983.72283</v>
+        <v>7251.2506</v>
       </c>
       <c r="F5" t="n">
-        <v>314.43203</v>
+        <v>5557.14047</v>
       </c>
       <c r="G5" t="n">
-        <v>484.41854</v>
+        <v>3586.44854</v>
       </c>
       <c r="H5" t="n">
-        <v>237.1264</v>
+        <v>4250.40257</v>
       </c>
       <c r="I5" t="n">
-        <v>606.5153</v>
+        <v>3845.26173</v>
       </c>
       <c r="J5" t="n">
-        <v>2850.88222</v>
+        <v>22692.11798</v>
       </c>
       <c r="K5" t="n">
-        <v>734.6549</v>
+        <v>6266.60874</v>
       </c>
       <c r="L5" t="n">
-        <v>1663.83211</v>
+        <v>5691.44159</v>
       </c>
       <c r="M5" t="n">
-        <v>390.96655</v>
+        <v>13485.40156</v>
       </c>
       <c r="N5" t="n">
-        <v>2003.47268</v>
+        <v>16127.57763</v>
       </c>
       <c r="O5" t="n">
-        <v>5820.23661</v>
+        <v>79071.38987</v>
       </c>
       <c r="P5" t="n">
-        <v>688.03556</v>
+        <v>3138.82201</v>
       </c>
       <c r="Q5" t="n">
-        <v>1823.55132</v>
+        <v>14512.42996</v>
       </c>
       <c r="R5" t="n">
-        <v>129.96551</v>
+        <v>1523.73343</v>
       </c>
       <c r="S5" t="n">
-        <v>403.67799</v>
+        <v>4174.25762</v>
       </c>
       <c r="T5" t="n">
-        <v>2103.85053</v>
+        <v>31507.29807</v>
       </c>
       <c r="U5" t="n">
-        <v>3106.43733</v>
+        <v>15616.06489</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1027.2984</v>
+        <v>4423.7471</v>
       </c>
       <c r="C6" t="n">
-        <v>2785.75273</v>
+        <v>6896.8082</v>
       </c>
       <c r="D6" t="n">
-        <v>480.48428</v>
+        <v>3968.2154</v>
       </c>
       <c r="E6" t="n">
-        <v>1393.03604</v>
+        <v>8917.554550000001</v>
       </c>
       <c r="F6" t="n">
-        <v>654.43985</v>
+        <v>6529.15028</v>
       </c>
       <c r="G6" t="n">
-        <v>590.37388</v>
+        <v>4349.04391</v>
       </c>
       <c r="H6" t="n">
-        <v>691.65559</v>
+        <v>4724.48973</v>
       </c>
       <c r="I6" t="n">
-        <v>693.5553200000001</v>
+        <v>4513.71211</v>
       </c>
       <c r="J6" t="n">
-        <v>5255.87741</v>
+        <v>26566.28703</v>
       </c>
       <c r="K6" t="n">
-        <v>1212.75921</v>
+        <v>7141.08182</v>
       </c>
       <c r="L6" t="n">
-        <v>2022.48889</v>
+        <v>6065.5068</v>
       </c>
       <c r="M6" t="n">
-        <v>851.10448</v>
+        <v>14470.84341</v>
       </c>
       <c r="N6" t="n">
-        <v>3238.63565</v>
+        <v>16153.88518</v>
       </c>
       <c r="O6" t="n">
-        <v>10522.01188</v>
+        <v>87241.70926</v>
       </c>
       <c r="P6" t="n">
-        <v>798.04749</v>
+        <v>3417.62989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2116.01182</v>
+        <v>15989.12679</v>
       </c>
       <c r="R6" t="n">
-        <v>419.6867</v>
+        <v>1878.31287</v>
       </c>
       <c r="S6" t="n">
-        <v>248.71149</v>
+        <v>4866.89947</v>
       </c>
       <c r="T6" t="n">
-        <v>3904.42929</v>
+        <v>34613.52426</v>
       </c>
       <c r="U6" t="n">
-        <v>3947.66907</v>
+        <v>16998.36127</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1424.94776</v>
+        <v>4360.8377</v>
       </c>
       <c r="C7" t="n">
-        <v>2656.35457</v>
+        <v>7051.0524</v>
       </c>
       <c r="D7" t="n">
-        <v>549.98433</v>
+        <v>3541.6798</v>
       </c>
       <c r="E7" t="n">
-        <v>1365.9936</v>
+        <v>10436.7945</v>
       </c>
       <c r="F7" t="n">
-        <v>735.60972</v>
+        <v>6574.8444</v>
       </c>
       <c r="G7" t="n">
-        <v>582.51803</v>
+        <v>4811.1486</v>
       </c>
       <c r="H7" t="n">
-        <v>707.27693</v>
+        <v>4523.7963</v>
       </c>
       <c r="I7" t="n">
-        <v>712.3805599999999</v>
+        <v>5181.0899</v>
       </c>
       <c r="J7" t="n">
-        <v>4754.30185</v>
+        <v>28690.9978</v>
       </c>
       <c r="K7" t="n">
-        <v>1059.22009</v>
+        <v>7658.0047</v>
       </c>
       <c r="L7" t="n">
-        <v>2171.93122</v>
+        <v>6317.3067</v>
       </c>
       <c r="M7" t="n">
-        <v>942.15172</v>
+        <v>14024.5612</v>
       </c>
       <c r="N7" t="n">
-        <v>3252.98254</v>
+        <v>18104.1075</v>
       </c>
       <c r="O7" t="n">
-        <v>11121.61906</v>
+        <v>84601.5784</v>
       </c>
       <c r="P7" t="n">
-        <v>675.07397</v>
+        <v>3522.2781</v>
       </c>
       <c r="Q7" t="n">
-        <v>2057.95855</v>
+        <v>16710.8897</v>
       </c>
       <c r="R7" t="n">
-        <v>400.79893</v>
+        <v>1935.2282</v>
       </c>
       <c r="S7" t="n">
-        <v>303.40329</v>
+        <v>4413.0511</v>
       </c>
       <c r="T7" t="n">
-        <v>4275.1676</v>
+        <v>31146.661</v>
       </c>
       <c r="U7" t="n">
-        <v>3838.73016</v>
+        <v>20122.1902</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1178.5635</v>
+        <v>4729.5596</v>
       </c>
       <c r="C8" t="n">
-        <v>2811.1481</v>
+        <v>8389.0229</v>
       </c>
       <c r="D8" t="n">
-        <v>675.8705</v>
+        <v>3206.2823</v>
       </c>
       <c r="E8" t="n">
-        <v>1538.0325</v>
+        <v>12326.0506</v>
       </c>
       <c r="F8" t="n">
-        <v>845.8294</v>
+        <v>7752.7344</v>
       </c>
       <c r="G8" t="n">
-        <v>672.3861000000001</v>
+        <v>5384.9867</v>
       </c>
       <c r="H8" t="n">
-        <v>794.1772999999999</v>
+        <v>5083.4913</v>
       </c>
       <c r="I8" t="n">
-        <v>934.4811</v>
+        <v>4980.9942</v>
       </c>
       <c r="J8" t="n">
-        <v>5162.0071</v>
+        <v>32626.3318</v>
       </c>
       <c r="K8" t="n">
-        <v>962.6161</v>
+        <v>8563.2963</v>
       </c>
       <c r="L8" t="n">
-        <v>2413.8278</v>
+        <v>6499.0812</v>
       </c>
       <c r="M8" t="n">
-        <v>1058.4296</v>
+        <v>15058.3891</v>
       </c>
       <c r="N8" t="n">
-        <v>3574.6717</v>
+        <v>18457.1763</v>
       </c>
       <c r="O8" t="n">
-        <v>12670.4056</v>
+        <v>94454.41310000001</v>
       </c>
       <c r="P8" t="n">
-        <v>699.3814</v>
+        <v>4015.0776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2410.1482</v>
+        <v>17591.4784</v>
       </c>
       <c r="R8" t="n">
-        <v>346.0814</v>
+        <v>2298.799</v>
       </c>
       <c r="S8" t="n">
-        <v>890.7975</v>
+        <v>4402.1534</v>
       </c>
       <c r="T8" t="n">
-        <v>5080.4069</v>
+        <v>35030.0975</v>
       </c>
       <c r="U8" t="n">
-        <v>4189.5441</v>
+        <v>21418.9264</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1565.93745</v>
+        <v>4456.855</v>
       </c>
       <c r="C9" t="n">
-        <v>2677.05884</v>
+        <v>8447.59</v>
       </c>
       <c r="D9" t="n">
-        <v>839.9507599999999</v>
+        <v>2864.008</v>
       </c>
       <c r="E9" t="n">
-        <v>1745.81704</v>
+        <v>15255.532</v>
       </c>
       <c r="F9" t="n">
-        <v>1216.25067</v>
+        <v>8458.536</v>
       </c>
       <c r="G9" t="n">
-        <v>761.495</v>
+        <v>6330.346</v>
       </c>
       <c r="H9" t="n">
-        <v>992.60002</v>
+        <v>8516.036</v>
       </c>
       <c r="I9" t="n">
-        <v>1015.91128</v>
+        <v>4853.933</v>
       </c>
       <c r="J9" t="n">
-        <v>6477.98091</v>
+        <v>35614.117</v>
       </c>
       <c r="K9" t="n">
-        <v>1197.10108</v>
+        <v>9772.396000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>2752.01666</v>
+        <v>6680.361</v>
       </c>
       <c r="M9" t="n">
-        <v>1358.57526</v>
+        <v>16009.794</v>
       </c>
       <c r="N9" t="n">
-        <v>4650.04765</v>
+        <v>20866.846</v>
       </c>
       <c r="O9" t="n">
-        <v>17181.42919</v>
+        <v>102278.407</v>
       </c>
       <c r="P9" t="n">
-        <v>668.66337</v>
+        <v>4148.843</v>
       </c>
       <c r="Q9" t="n">
-        <v>2765.56528</v>
+        <v>21797.113</v>
       </c>
       <c r="R9" t="n">
-        <v>407.83034</v>
+        <v>2618.23</v>
       </c>
       <c r="S9" t="n">
-        <v>813.14478</v>
+        <v>5072.289</v>
       </c>
       <c r="T9" t="n">
-        <v>7276.56811</v>
+        <v>38460.962</v>
       </c>
       <c r="U9" t="n">
-        <v>4709.27766</v>
+        <v>22752.252</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1445.9389</v>
+        <v>4136.2</v>
       </c>
       <c r="C10" t="n">
-        <v>2957.7234</v>
+        <v>9510.200000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>1310.8941</v>
+        <v>2941.6</v>
       </c>
       <c r="E10" t="n">
-        <v>2446.3572</v>
+        <v>18281.2</v>
       </c>
       <c r="F10" t="n">
-        <v>1796.8373</v>
+        <v>10535.4</v>
       </c>
       <c r="G10" t="n">
-        <v>1168.7605</v>
+        <v>6676.9</v>
       </c>
       <c r="H10" t="n">
-        <v>1329.8077</v>
+        <v>6595.2</v>
       </c>
       <c r="I10" t="n">
-        <v>1518.2858</v>
+        <v>5084.7</v>
       </c>
       <c r="J10" t="n">
-        <v>10105.1182</v>
+        <v>40805.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2335.7598</v>
+        <v>13393.6</v>
       </c>
       <c r="L10" t="n">
-        <v>3187.0105</v>
+        <v>7078.1</v>
       </c>
       <c r="M10" t="n">
-        <v>3453.2415</v>
+        <v>15671.7</v>
       </c>
       <c r="N10" t="n">
-        <v>6303.0662</v>
+        <v>22562.1</v>
       </c>
       <c r="O10" t="n">
-        <v>27981.2249</v>
+        <v>115728.1</v>
       </c>
       <c r="P10" t="n">
-        <v>1207.5259</v>
+        <v>4554.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>3999.5428</v>
+        <v>23482.6</v>
       </c>
       <c r="R10" t="n">
-        <v>596.9349</v>
+        <v>3120.9</v>
       </c>
       <c r="S10" t="n">
-        <v>2231.5004</v>
+        <v>4526.9</v>
       </c>
       <c r="T10" t="n">
-        <v>11998.18</v>
+        <v>46922.6</v>
       </c>
       <c r="U10" t="n">
-        <v>6401.3089</v>
+        <v>24506.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1599.69917</v>
+        <v>4855.9227</v>
       </c>
       <c r="C11" t="n">
-        <v>3346.40278</v>
+        <v>11078.4176</v>
       </c>
       <c r="D11" t="n">
-        <v>1238.98906</v>
+        <v>3139.382</v>
       </c>
       <c r="E11" t="n">
-        <v>3051.80272</v>
+        <v>22329.4057</v>
       </c>
       <c r="F11" t="n">
-        <v>2185.51373</v>
+        <v>13809.9399</v>
       </c>
       <c r="G11" t="n">
-        <v>1226.62511</v>
+        <v>8014.9775</v>
       </c>
       <c r="H11" t="n">
-        <v>2011.01123</v>
+        <v>8034.5335</v>
       </c>
       <c r="I11" t="n">
-        <v>1465.02011</v>
+        <v>5517.6753</v>
       </c>
       <c r="J11" t="n">
-        <v>12031.16458</v>
+        <v>47027.6678</v>
       </c>
       <c r="K11" t="n">
-        <v>2761.14161</v>
+        <v>15186.524</v>
       </c>
       <c r="L11" t="n">
-        <v>3479.44973</v>
+        <v>6958.4208</v>
       </c>
       <c r="M11" t="n">
-        <v>4165.4568</v>
+        <v>20765.5892</v>
       </c>
       <c r="N11" t="n">
-        <v>7258.96428</v>
+        <v>25278.8427</v>
       </c>
       <c r="O11" t="n">
-        <v>30948.39449</v>
+        <v>139757.4843</v>
       </c>
       <c r="P11" t="n">
-        <v>1243.55686</v>
+        <v>5299.231</v>
       </c>
       <c r="Q11" t="n">
-        <v>4318.56391</v>
+        <v>27607.9711</v>
       </c>
       <c r="R11" t="n">
-        <v>798.07994</v>
+        <v>3414.7264</v>
       </c>
       <c r="S11" t="n">
-        <v>2443.69567</v>
+        <v>5268.8667</v>
       </c>
       <c r="T11" t="n">
-        <v>12751.16067</v>
+        <v>56791.7887</v>
       </c>
       <c r="U11" t="n">
-        <v>6849.51933</v>
+        <v>27942.7943</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2104.4</v>
+        <v>6554.65</v>
       </c>
       <c r="C12" t="n">
-        <v>3981.2</v>
+        <v>13329.7373</v>
       </c>
       <c r="D12" t="n">
-        <v>1429.3</v>
+        <v>3486.5189</v>
       </c>
       <c r="E12" t="n">
-        <v>3734.7</v>
+        <v>26175.3969</v>
       </c>
       <c r="F12" t="n">
-        <v>2674.1</v>
+        <v>17268.7592</v>
       </c>
       <c r="G12" t="n">
-        <v>1544.4</v>
+        <v>8617.0659</v>
       </c>
       <c r="H12" t="n">
-        <v>2425.6</v>
+        <v>9438.0646</v>
       </c>
       <c r="I12" t="n">
-        <v>1891.9</v>
+        <v>5679.1179</v>
       </c>
       <c r="J12" t="n">
-        <v>15240.7</v>
+        <v>56229.53</v>
       </c>
       <c r="K12" t="n">
-        <v>3756.2</v>
+        <v>18339.2584</v>
       </c>
       <c r="L12" t="n">
-        <v>4019.7</v>
+        <v>7755.748</v>
       </c>
       <c r="M12" t="n">
-        <v>5711.2</v>
+        <v>26311.6323</v>
       </c>
       <c r="N12" t="n">
-        <v>8762.200000000001</v>
+        <v>25036.2881</v>
       </c>
       <c r="O12" t="n">
-        <v>39997.2</v>
+        <v>164589.5513</v>
       </c>
       <c r="P12" t="n">
-        <v>1753.2</v>
+        <v>6177.85</v>
       </c>
       <c r="Q12" t="n">
-        <v>5273.4</v>
+        <v>31017.9648</v>
       </c>
       <c r="R12" t="n">
-        <v>1046.1</v>
+        <v>4440.8418</v>
       </c>
       <c r="S12" t="n">
-        <v>3434.5</v>
+        <v>5388.2529</v>
       </c>
       <c r="T12" t="n">
-        <v>17015.2</v>
+        <v>67872.08749999999</v>
       </c>
       <c r="U12" t="n">
-        <v>8688.200000000001</v>
+        <v>32834.2317</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2879.5587</v>
+        <v>7443.76</v>
       </c>
       <c r="C13" t="n">
-        <v>4198.3709</v>
+        <v>15876.5601</v>
       </c>
       <c r="D13" t="n">
-        <v>1965.6802</v>
+        <v>3904.957</v>
       </c>
       <c r="E13" t="n">
-        <v>4897.8207</v>
+        <v>29390.2</v>
       </c>
       <c r="F13" t="n">
-        <v>3562.2715</v>
+        <v>22260.929</v>
       </c>
       <c r="G13" t="n">
-        <v>1963.4782</v>
+        <v>9576.383400000001</v>
       </c>
       <c r="H13" t="n">
-        <v>3027.1268</v>
+        <v>10621.8568</v>
       </c>
       <c r="I13" t="n">
-        <v>2784.6042</v>
+        <v>6159.1384</v>
       </c>
       <c r="J13" t="n">
-        <v>19297.388</v>
+        <v>62967.8118</v>
       </c>
       <c r="K13" t="n">
-        <v>4960.0897</v>
+        <v>20575.2374</v>
       </c>
       <c r="L13" t="n">
-        <v>4743.1418</v>
+        <v>7957.674</v>
       </c>
       <c r="M13" t="n">
-        <v>8059.2937</v>
+        <v>33516.4813</v>
       </c>
       <c r="N13" t="n">
-        <v>10937.0242</v>
+        <v>27288.0935</v>
       </c>
       <c r="O13" t="n">
-        <v>52811.3862</v>
+        <v>196639.0886</v>
       </c>
       <c r="P13" t="n">
-        <v>1955.5624</v>
+        <v>7011.2833</v>
       </c>
       <c r="Q13" t="n">
-        <v>7141.7505</v>
+        <v>34916.9164</v>
       </c>
       <c r="R13" t="n">
-        <v>1792.6679</v>
+        <v>5153.4578</v>
       </c>
       <c r="S13" t="n">
-        <v>3599.7924</v>
+        <v>4931.7037</v>
       </c>
       <c r="T13" t="n">
-        <v>22528.3479</v>
+        <v>76635.8269</v>
       </c>
       <c r="U13" t="n">
-        <v>10655.2983</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3268.12844</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4710.28748</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2656.15375</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5784.78812</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4381.50762</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3262.98801</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3361.27381</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3053.13068</v>
-      </c>
-      <c r="J14" t="n">
-        <v>18824.24215</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5008.69511</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5235.75975</v>
-      </c>
-      <c r="M14" t="n">
-        <v>11152.11671</v>
-      </c>
-      <c r="N14" t="n">
-        <v>12554.1882</v>
-      </c>
-      <c r="O14" t="n">
-        <v>63907.2923</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2686.11357</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>11439.23284</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1415.06175</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3503.52084</v>
-      </c>
-      <c r="T14" t="n">
-        <v>25955.51658</v>
-      </c>
-      <c r="U14" t="n">
-        <v>12803.61502</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3973.4604</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5816.14899</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2788.31906</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7251.2506</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5557.14047</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3586.44854</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4250.40257</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3845.26173</v>
-      </c>
-      <c r="J15" t="n">
-        <v>22692.11798</v>
-      </c>
-      <c r="K15" t="n">
-        <v>6266.60874</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5691.44159</v>
-      </c>
-      <c r="M15" t="n">
-        <v>13485.40156</v>
-      </c>
-      <c r="N15" t="n">
-        <v>16127.57763</v>
-      </c>
-      <c r="O15" t="n">
-        <v>79071.38987</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3138.82201</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>14512.42996</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1523.73343</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4174.25762</v>
-      </c>
-      <c r="T15" t="n">
-        <v>31507.29807</v>
-      </c>
-      <c r="U15" t="n">
-        <v>15616.06489</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4423.7471</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6896.8082</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3968.2154</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8917.554550000001</v>
-      </c>
-      <c r="F16" t="n">
-        <v>6529.15028</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4349.04391</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4724.48973</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4513.71211</v>
-      </c>
-      <c r="J16" t="n">
-        <v>26566.28703</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7141.08182</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6065.5068</v>
-      </c>
-      <c r="M16" t="n">
-        <v>14470.84341</v>
-      </c>
-      <c r="N16" t="n">
-        <v>16153.88518</v>
-      </c>
-      <c r="O16" t="n">
-        <v>87241.70926</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3417.62989</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>15989.12679</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1878.31287</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4866.89947</v>
-      </c>
-      <c r="T16" t="n">
-        <v>34613.52426</v>
-      </c>
-      <c r="U16" t="n">
-        <v>16998.36127</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4360.8377</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7051.0524</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3541.6798</v>
-      </c>
-      <c r="E17" t="n">
-        <v>10436.7945</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6574.8444</v>
-      </c>
-      <c r="G17" t="n">
-        <v>4811.1486</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4523.7963</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5181.0899</v>
-      </c>
-      <c r="J17" t="n">
-        <v>28690.9978</v>
-      </c>
-      <c r="K17" t="n">
-        <v>7658.0047</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6317.3067</v>
-      </c>
-      <c r="M17" t="n">
-        <v>14024.5612</v>
-      </c>
-      <c r="N17" t="n">
-        <v>18104.1075</v>
-      </c>
-      <c r="O17" t="n">
-        <v>84601.5784</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3522.2781</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>16710.8897</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1935.2282</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4413.0511</v>
-      </c>
-      <c r="T17" t="n">
-        <v>31146.661</v>
-      </c>
-      <c r="U17" t="n">
-        <v>20122.1902</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4729.5596</v>
-      </c>
-      <c r="C18" t="n">
-        <v>8389.0229</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3206.2823</v>
-      </c>
-      <c r="E18" t="n">
-        <v>12326.0506</v>
-      </c>
-      <c r="F18" t="n">
-        <v>7752.7344</v>
-      </c>
-      <c r="G18" t="n">
-        <v>5384.9867</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5083.4913</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4980.9942</v>
-      </c>
-      <c r="J18" t="n">
-        <v>32626.3318</v>
-      </c>
-      <c r="K18" t="n">
-        <v>8563.2963</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6499.0812</v>
-      </c>
-      <c r="M18" t="n">
-        <v>15058.3891</v>
-      </c>
-      <c r="N18" t="n">
-        <v>18457.1763</v>
-      </c>
-      <c r="O18" t="n">
-        <v>94454.41310000001</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4015.0776</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>17591.4784</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2298.799</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4402.1534</v>
-      </c>
-      <c r="T18" t="n">
-        <v>35030.0975</v>
-      </c>
-      <c r="U18" t="n">
-        <v>21418.9264</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4456.855</v>
-      </c>
-      <c r="C19" t="n">
-        <v>8447.59</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2864.008</v>
-      </c>
-      <c r="E19" t="n">
-        <v>15255.532</v>
-      </c>
-      <c r="F19" t="n">
-        <v>8458.536</v>
-      </c>
-      <c r="G19" t="n">
-        <v>6330.346</v>
-      </c>
-      <c r="H19" t="n">
-        <v>8516.036</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4853.933</v>
-      </c>
-      <c r="J19" t="n">
-        <v>35614.117</v>
-      </c>
-      <c r="K19" t="n">
-        <v>9772.396000000001</v>
-      </c>
-      <c r="L19" t="n">
-        <v>6680.361</v>
-      </c>
-      <c r="M19" t="n">
-        <v>16009.794</v>
-      </c>
-      <c r="N19" t="n">
-        <v>20866.846</v>
-      </c>
-      <c r="O19" t="n">
-        <v>102278.407</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4148.843</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>21797.113</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2618.23</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5072.289</v>
-      </c>
-      <c r="T19" t="n">
-        <v>38460.962</v>
-      </c>
-      <c r="U19" t="n">
-        <v>22752.252</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4136.2</v>
-      </c>
-      <c r="C20" t="n">
-        <v>9510.200000000001</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2941.6</v>
-      </c>
-      <c r="E20" t="n">
-        <v>18281.2</v>
-      </c>
-      <c r="F20" t="n">
-        <v>10535.4</v>
-      </c>
-      <c r="G20" t="n">
-        <v>6676.9</v>
-      </c>
-      <c r="H20" t="n">
-        <v>6595.2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5084.7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>40805.5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>13393.6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>7078.1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>15671.7</v>
-      </c>
-      <c r="N20" t="n">
-        <v>22562.1</v>
-      </c>
-      <c r="O20" t="n">
-        <v>115728.1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4554.3</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>23482.6</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3120.9</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4526.9</v>
-      </c>
-      <c r="T20" t="n">
-        <v>46922.6</v>
-      </c>
-      <c r="U20" t="n">
-        <v>24506.1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4855.9227</v>
-      </c>
-      <c r="C21" t="n">
-        <v>11078.4176</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3139.382</v>
-      </c>
-      <c r="E21" t="n">
-        <v>22329.4057</v>
-      </c>
-      <c r="F21" t="n">
-        <v>13809.9399</v>
-      </c>
-      <c r="G21" t="n">
-        <v>8014.9775</v>
-      </c>
-      <c r="H21" t="n">
-        <v>8034.5335</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5517.6753</v>
-      </c>
-      <c r="J21" t="n">
-        <v>47027.6678</v>
-      </c>
-      <c r="K21" t="n">
-        <v>15186.524</v>
-      </c>
-      <c r="L21" t="n">
-        <v>6958.4208</v>
-      </c>
-      <c r="M21" t="n">
-        <v>20765.5892</v>
-      </c>
-      <c r="N21" t="n">
-        <v>25278.8427</v>
-      </c>
-      <c r="O21" t="n">
-        <v>139757.4843</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5299.231</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>27607.9711</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3414.7264</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5268.8667</v>
-      </c>
-      <c r="T21" t="n">
-        <v>56791.7887</v>
-      </c>
-      <c r="U21" t="n">
-        <v>27942.7943</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>6554.65</v>
-      </c>
-      <c r="C22" t="n">
-        <v>13329.7373</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3486.5189</v>
-      </c>
-      <c r="E22" t="n">
-        <v>26175.3969</v>
-      </c>
-      <c r="F22" t="n">
-        <v>17268.7592</v>
-      </c>
-      <c r="G22" t="n">
-        <v>8617.0659</v>
-      </c>
-      <c r="H22" t="n">
-        <v>9438.0646</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5679.1179</v>
-      </c>
-      <c r="J22" t="n">
-        <v>56229.53</v>
-      </c>
-      <c r="K22" t="n">
-        <v>18339.2584</v>
-      </c>
-      <c r="L22" t="n">
-        <v>7755.748</v>
-      </c>
-      <c r="M22" t="n">
-        <v>26311.6323</v>
-      </c>
-      <c r="N22" t="n">
-        <v>25036.2881</v>
-      </c>
-      <c r="O22" t="n">
-        <v>164589.5513</v>
-      </c>
-      <c r="P22" t="n">
-        <v>6177.85</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>31017.9648</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4440.8418</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5388.2529</v>
-      </c>
-      <c r="T22" t="n">
-        <v>67872.08749999999</v>
-      </c>
-      <c r="U22" t="n">
-        <v>32834.2317</v>
+        <v>36897.5503</v>
       </c>
     </row>
   </sheetData>
